--- a/biology/Histoire de la zoologie et de la botanique/Richard_Thomas_(zoologiste)/Richard_Thomas_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Thomas_(zoologiste)/Richard_Thomas_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Thomas, né le 2 mai 1938, est un herpétologiste américain de l'Université de Porto Rico.
 Il est célèbre pour avoir découvert, en 2001, le plus petit lézard du monde Sphaerodactylus ariasae sur l'île Beata en République dominicaine.
@@ -512,7 +524,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eleutherodactylus amadeus
